--- a/Games for Seeding.xlsx
+++ b/Games for Seeding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colesgroup-my.sharepoint.com/personal/jeremy_stone1_coles_com_au/Documents/Documents/Personal Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED4EBF92-FD98-4F5A-9C5D-3B4DB38B8427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="8_{C15B1B23-E64D-4AF6-B5FA-BD5A267183DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40F226E8-FFC2-4B80-B6DC-D3D27A3DBBD7}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="11290" windowWidth="16070" windowHeight="9980" activeTab="1" xr2:uid="{7C29545A-5A1D-4C57-922A-D31503040BFD}"/>
+    <workbookView xWindow="13050" yWindow="11720" windowWidth="14400" windowHeight="9980" activeTab="1" xr2:uid="{7C29545A-5A1D-4C57-922A-D31503040BFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="446">
   <si>
     <t>test</t>
   </si>
@@ -1375,27 +1375,6 @@
   </si>
   <si>
     <t>Playstation (Physical)</t>
-  </si>
-  <si>
-    <t>Crash Bandicoot 4: It's About Time</t>
-  </si>
-  <si>
-    <t>Tony Hawk's Pro Skater 1 &amp; 2</t>
-  </si>
-  <si>
-    <t>Dragon's Crown</t>
-  </si>
-  <si>
-    <t>Pokemon: Let's Go, Eevee!</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>Store</t>
-  </si>
-  <si>
-    <t>Game Title</t>
   </si>
 </sst>
 </file>
@@ -1449,10 +1428,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1794,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61858D7-14CF-4CCB-B5C2-11684DC6CAF4}">
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,24 +1780,17 @@
     <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>420</v>
       </c>
       <c r="C1" t="s">
         <v>421</v>
       </c>
-      <c r="D1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1836,7 +1804,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1850,7 +1818,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1864,7 +1832,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1878,7 +1846,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1892,7 +1860,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1906,7 +1874,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1920,7 +1888,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1934,7 +1902,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1948,7 +1916,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1962,7 +1930,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1976,7 +1944,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1990,7 +1958,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2004,7 +1972,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2018,7 +1986,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2365,7 +2333,7 @@
         <v>424</v>
       </c>
       <c r="D40" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2480,7 +2448,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2494,7 +2462,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2508,7 +2476,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2522,7 +2490,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2536,7 +2504,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2550,7 +2518,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2564,7 +2532,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2578,7 +2546,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2589,13 +2557,10 @@
         <v>424</v>
       </c>
       <c r="D56" t="s">
-        <v>444</v>
-      </c>
-      <c r="E56" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>439</v>
       </c>
@@ -2609,7 +2574,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>441</v>
       </c>
@@ -2623,7 +2588,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2637,7 +2602,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2651,7 +2616,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2665,7 +2630,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2679,7 +2644,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2693,7 +2658,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2707,7 +2672,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2721,7 +2686,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2735,7 +2700,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2749,7 +2714,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2763,7 +2728,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2777,7 +2742,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2791,7 +2756,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2805,7 +2770,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2819,7 +2784,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2833,7 +2798,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2847,7 +2812,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2861,7 +2826,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2874,11 +2839,8 @@
       <c r="D76" t="s">
         <v>432</v>
       </c>
-      <c r="E76" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2892,7 +2854,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2906,7 +2868,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2920,7 +2882,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -4054,7 +4016,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -4068,7 +4030,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -4082,7 +4044,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -4096,7 +4058,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -4110,7 +4072,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -4124,7 +4086,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -4138,7 +4100,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -4151,11 +4113,8 @@
       <c r="D167" t="s">
         <v>445</v>
       </c>
-      <c r="E167" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -4169,7 +4128,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -4182,11 +4141,8 @@
       <c r="D169" t="s">
         <v>443</v>
       </c>
-      <c r="E169" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -4200,7 +4156,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -4214,7 +4170,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -4227,11 +4183,8 @@
       <c r="D172" t="s">
         <v>443</v>
       </c>
-      <c r="E172" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -4245,7 +4198,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -4259,7 +4212,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -4273,7 +4226,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
